--- a/Design Docs/Asset Register.xlsx
+++ b/Design Docs/Asset Register.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc445f7480d19c5f/Documents/DroneGameProject/Design Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbear\Documents\Drones\Design Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_F25DC773A252ABDACC104839E91F42605ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896FF812-E110-4DB1-B7C9-D665CD411518}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1143A5A-9B2E-4F51-9EDA-3392626669DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Art" sheetId="2" r:id="rId1"/>
+    <sheet name="Audio" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Type</t>
   </si>
@@ -89,6 +90,22 @@
   </si>
   <si>
     <t>Variation of player drone</t>
+  </si>
+  <si>
+    <t>Never Mind Tech 
+Audio Asset Register</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Whirring, props moving</t>
   </si>
 </sst>
 </file>
@@ -153,13 +170,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,10 +458,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E310AE-1C55-4A83-A078-7ED8D41DCD6D}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -457,28 +474,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -548,6 +565,74 @@
       </c>
       <c r="B9" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="4" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Design Docs/Asset Register.xlsx
+++ b/Design Docs/Asset Register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbear\Documents\Drones\Design Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbear\Documents\DroneGameProject\Design Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1143A5A-9B2E-4F51-9EDA-3392626669DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DFA6C-4B2F-4DA5-8B36-B9877691331F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Art" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Type</t>
   </si>
@@ -105,7 +105,10 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Whirring, props moving</t>
+    <t>Propellor</t>
+  </si>
+  <si>
+    <t>Main 'droning' sound when flying, needs to match prop speed</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,6 +181,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,10 +583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,10 +608,10 @@
     </row>
     <row r="2" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
@@ -617,22 +623,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
-        <v>20</v>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Design Docs/Asset Register.xlsx
+++ b/Design Docs/Asset Register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbear\Documents\DroneGameProject\Design Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DFA6C-4B2F-4DA5-8B36-B9877691331F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D20322D-0F42-4636-B0AD-1B4739E0979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Art" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Type</t>
   </si>
@@ -109,6 +109,60 @@
   </si>
   <si>
     <t>Main 'droning' sound when flying, needs to match prop speed</t>
+  </si>
+  <si>
+    <t>Bump into object</t>
+  </si>
+  <si>
+    <t>Legs moving</t>
+  </si>
+  <si>
+    <t>Legs will move from landing position to grabbing object position, sound effect should match the movement of the legs</t>
+  </si>
+  <si>
+    <t>Kid</t>
+  </si>
+  <si>
+    <t>Walking</t>
+  </si>
+  <si>
+    <t>Ladder climb</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Switch  between kid and drone</t>
+  </si>
+  <si>
+    <t>Toggle sound when player changes control</t>
+  </si>
+  <si>
+    <t>Drone exploding? Maybe drone dropping to ground and malfunctioning</t>
+  </si>
+  <si>
+    <t>Ladder dropping</t>
+  </si>
+  <si>
+    <t>Switch activated</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Change menu item</t>
+  </si>
+  <si>
+    <t>Light click when player moves around the menu headings</t>
+  </si>
+  <si>
+    <t>Letter typing</t>
+  </si>
+  <si>
+    <t>Possible sound when letters appear on screen - thinking dialogue and narrative writes out live on screen</t>
   </si>
 </sst>
 </file>
@@ -171,10 +225,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -182,8 +239,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,13 +537,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -583,37 +640,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="4" width="38.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -627,11 +685,90 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
